--- a/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181(UDATEST).xlsx
+++ b/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181(UDATEST).xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="135" windowWidth="11400" windowHeight="8070" tabRatio="500"/>
+    <workbookView xWindow="9165" yWindow="195" windowWidth="11400" windowHeight="8010" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FSB-FULLTIME" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
@@ -264,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,9 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -380,6 +381,29 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -752,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +795,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2"/>
@@ -783,11 +807,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -849,70 +873,70 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" s="41" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="37">
         <v>170</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="37">
         <v>170</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="37">
         <v>2000</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="39">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>1000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1500</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
@@ -925,19 +949,19 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>1800</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>1</v>
       </c>
       <c r="F11" s="4"/>
@@ -950,19 +974,19 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>1000</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>1</v>
       </c>
       <c r="F12" s="4"/>
@@ -975,19 +999,19 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>200</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
@@ -1000,19 +1024,19 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>50</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>100</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
@@ -1025,19 +1049,19 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>100</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>200</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>1</v>
       </c>
       <c r="F15" s="4"/>
@@ -1050,19 +1074,19 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
@@ -1075,19 +1099,19 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>50</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>100</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
@@ -1100,19 +1124,19 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>50</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>100</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
@@ -1125,19 +1149,19 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>3670</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>7170</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1</v>
       </c>
       <c r="F19" s="4"/>
@@ -1150,17 +1174,17 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="36">
-        <v>0</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="29" t="s">
+      <c r="B20" s="35">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
@@ -1176,95 +1200,95 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="45">
         <v>1000</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="45">
         <v>1500</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="46">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="37">
         <v>900</v>
       </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="37">
+        <v>0</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="39">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
         <v>900</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="39">
         <v>2</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
         <v>1000</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>2</v>
       </c>
       <c r="F24" s="4"/>
@@ -1277,19 +1301,19 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>200</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>200</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>2</v>
       </c>
       <c r="F25" s="4"/>
@@ -1302,19 +1326,19 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>50</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>100</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>2</v>
       </c>
       <c r="F26" s="4"/>
@@ -1327,19 +1351,19 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>100</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>200</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>2</v>
       </c>
       <c r="F27" s="4"/>
@@ -1352,19 +1376,19 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>50</v>
       </c>
-      <c r="C28" s="14">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>2</v>
       </c>
       <c r="F28" s="4"/>
@@ -1377,19 +1401,19 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>50</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>100</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>2</v>
       </c>
       <c r="F29" s="4"/>
@@ -1402,19 +1426,19 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>50</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>100</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>2</v>
       </c>
       <c r="F30" s="4"/>
@@ -1427,22 +1451,22 @@
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="34">
         <v>2400</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>4100</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>2</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="4">
         <v>2400</v>
       </c>
@@ -1456,17 +1480,17 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="36">
-        <v>0</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="29" t="s">
+      <c r="B32" s="35">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>0</v>
       </c>
       <c r="F32" s="4"/>
@@ -1479,19 +1503,19 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>1000</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>1500</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>3</v>
       </c>
       <c r="F33" s="4"/>
@@ -1503,45 +1527,45 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="37">
         <v>900</v>
       </c>
-      <c r="C34" s="14">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="37">
+        <v>0</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="39">
         <v>3</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="14">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
         <v>1000</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>3</v>
       </c>
       <c r="F35" s="4"/>
@@ -1554,19 +1578,19 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>200</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>200</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>3</v>
       </c>
       <c r="F36" s="4"/>
@@ -1579,19 +1603,19 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>50</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>100</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>3</v>
       </c>
       <c r="F37" s="4"/>
@@ -1604,19 +1628,19 @@
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>100</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>200</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>3</v>
       </c>
       <c r="F38" s="4"/>
@@ -1629,19 +1653,19 @@
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>50</v>
       </c>
-      <c r="C39" s="14">
-        <v>0</v>
-      </c>
-      <c r="D39" s="27" t="s">
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>3</v>
       </c>
       <c r="F39" s="4"/>
@@ -1654,19 +1678,19 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>50</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>100</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>3</v>
       </c>
       <c r="F40" s="4"/>
@@ -1679,19 +1703,19 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>50</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>100</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>3</v>
       </c>
       <c r="F41" s="4"/>
@@ -1704,19 +1728,19 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="34">
         <v>2400</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="34">
         <v>3200</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="27">
         <v>3</v>
       </c>
       <c r="F42" s="4"/>
@@ -1733,17 +1757,17 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="36">
-        <v>0</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="29" t="s">
+      <c r="B43" s="35">
+        <v>0</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>0</v>
       </c>
       <c r="F43" s="4"/>
@@ -1756,19 +1780,19 @@
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>1000</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>1500</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>4</v>
       </c>
       <c r="F44" s="4"/>
@@ -1781,19 +1805,19 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>900</v>
       </c>
-      <c r="C45" s="14">
-        <v>0</v>
-      </c>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>4</v>
       </c>
       <c r="F45" s="4"/>
@@ -1806,19 +1830,19 @@
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="14">
-        <v>0</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
         <v>1000</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>4</v>
       </c>
       <c r="F46" s="4"/>
@@ -1831,19 +1855,19 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>200</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>200</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="27">
         <v>4</v>
       </c>
       <c r="F47" s="4"/>
@@ -1855,37 +1879,37 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>50</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <v>100</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>100</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>200</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>4</v>
       </c>
       <c r="F49" s="4"/>
@@ -1897,62 +1921,62 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>50</v>
       </c>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>50</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>100</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>4</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>50</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>100</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>4</v>
       </c>
       <c r="F52" s="4"/>
@@ -1965,19 +1989,19 @@
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="34">
         <v>2400</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="34">
         <v>3200</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <v>4</v>
       </c>
       <c r="G53" s="4">
@@ -1993,17 +2017,17 @@
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="36">
-        <v>0</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="29" t="s">
+      <c r="B54" s="35">
+        <v>0</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <v>0</v>
       </c>
       <c r="F54" s="4"/>
@@ -2016,19 +2040,19 @@
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>1000</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <v>1500</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="27">
         <v>5</v>
       </c>
       <c r="F55" s="4"/>
@@ -2041,19 +2065,19 @@
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="14">
-        <v>0</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
         <v>1000</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <v>5</v>
       </c>
       <c r="F56" s="4"/>
@@ -2066,19 +2090,19 @@
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>200</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="13">
         <v>200</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <v>5</v>
       </c>
       <c r="F57" s="4"/>
@@ -2091,19 +2115,19 @@
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>50</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <v>100</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <v>5</v>
       </c>
       <c r="F58" s="4"/>
@@ -2116,19 +2140,19 @@
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>100</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="13">
         <v>200</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <v>5</v>
       </c>
       <c r="F59" s="4"/>
@@ -2141,19 +2165,19 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>50</v>
       </c>
-      <c r="C60" s="14">
-        <v>0</v>
-      </c>
-      <c r="D60" s="27" t="s">
+      <c r="C60" s="13">
+        <v>0</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <v>5</v>
       </c>
       <c r="F60" s="4"/>
@@ -2166,19 +2190,19 @@
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>50</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="13">
         <v>100</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <v>5</v>
       </c>
       <c r="F61" s="4"/>
@@ -2191,19 +2215,19 @@
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>50</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <v>100</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <v>5</v>
       </c>
       <c r="F62" s="4"/>
@@ -2216,25 +2240,25 @@
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="35">
+      <c r="B63" s="34">
         <v>1100</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="34">
         <v>3200</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="27">
         <v>5</v>
       </c>
       <c r="G63" s="11">
         <v>1100</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="32">
         <v>3200</v>
       </c>
       <c r="I63" s="4"/>
@@ -2244,17 +2268,17 @@
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="36">
-        <v>0</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="29" t="s">
+      <c r="B64" s="35">
+        <v>0</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="24">
         <v>0</v>
       </c>
       <c r="F64" s="4"/>
@@ -2267,19 +2291,19 @@
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>600</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <v>900</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>6</v>
       </c>
       <c r="F65" s="4"/>
@@ -2292,19 +2316,19 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="14">
-        <v>0</v>
-      </c>
-      <c r="C66" s="14">
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
         <v>1000</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="27">
         <v>6</v>
       </c>
       <c r="F66" s="4"/>
@@ -2317,19 +2341,19 @@
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>200</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <v>200</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="27">
         <v>6</v>
       </c>
       <c r="F67" s="4"/>
@@ -2342,19 +2366,19 @@
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>50</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <v>100</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="27">
         <v>6</v>
       </c>
       <c r="F68" s="4"/>
@@ -2367,19 +2391,19 @@
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>100</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <v>200</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="27">
         <v>6</v>
       </c>
       <c r="F69" s="4"/>
@@ -2392,19 +2416,19 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>50</v>
       </c>
-      <c r="C70" s="14">
-        <v>0</v>
-      </c>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="27">
         <v>6</v>
       </c>
       <c r="F70" s="4"/>
@@ -2417,19 +2441,19 @@
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>50</v>
       </c>
-      <c r="C71" s="14">
-        <v>0</v>
-      </c>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="27">
         <v>6</v>
       </c>
       <c r="F71" s="4"/>
@@ -2442,19 +2466,19 @@
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>50</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="13">
         <v>100</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72" s="27">
         <v>6</v>
       </c>
       <c r="F72" s="4"/>
@@ -2467,7 +2491,7 @@
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B73" s="11">
@@ -2476,10 +2500,10 @@
       <c r="C73" s="11">
         <v>2500</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="27">
         <v>6</v>
       </c>
       <c r="G73" s="4">
@@ -2505,38 +2529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.28515625"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.28515625"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181(UDATEST).xlsx
+++ b/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181(UDATEST).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="195" windowWidth="11400" windowHeight="8010" tabRatio="500"/>
+    <workbookView xWindow="9165" yWindow="255" windowWidth="11400" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FSB-FULLTIME" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -162,13 +162,13 @@
     <t>M</t>
   </si>
   <si>
-    <t>FPV-PHD-0001-CHRT-201720181</t>
-  </si>
-  <si>
     <t>YURAN PENGAJIAN PROGRAM SARJANA SAINS - VETERINAR (MOD PENYELIDIKAN)</t>
   </si>
   <si>
     <t>2)Yuran  Research Methodology</t>
+  </si>
+  <si>
+    <t>FIAT-PHD-0001-CHRT-201720181</t>
   </si>
 </sst>
 </file>
@@ -378,9 +378,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -404,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -873,55 +873,55 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="41" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:13" s="40" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>170</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>170</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>1</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" s="41" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" s="40" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>2000</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1177,10 +1177,10 @@
       <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="35">
-        <v>0</v>
-      </c>
-      <c r="C20" s="35"/>
+      <c r="B20" s="48">
+        <v>0</v>
+      </c>
+      <c r="C20" s="48"/>
       <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
@@ -1200,80 +1200,80 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="44">
         <v>1000</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="44">
         <v>1500</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>2</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>900</v>
       </c>
-      <c r="C22" s="37">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="36">
+        <v>0</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>2</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="37">
-        <v>0</v>
-      </c>
-      <c r="C23" s="37">
+      <c r="B23" s="36">
+        <v>0</v>
+      </c>
+      <c r="C23" s="36">
         <v>900</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <v>2</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
@@ -1483,10 +1483,10 @@
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="35">
-        <v>0</v>
-      </c>
-      <c r="C32" s="35"/>
+      <c r="B32" s="48">
+        <v>0</v>
+      </c>
+      <c r="C32" s="48"/>
       <c r="D32" s="28" t="s">
         <v>45</v>
       </c>
@@ -1527,30 +1527,30 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="37">
+    <row r="34" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="36">
         <v>900</v>
       </c>
-      <c r="C34" s="37">
-        <v>0</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="36">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>3</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -1760,10 +1760,10 @@
       <c r="A43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="35">
-        <v>0</v>
-      </c>
-      <c r="C43" s="35"/>
+      <c r="B43" s="48">
+        <v>0</v>
+      </c>
+      <c r="C43" s="48"/>
       <c r="D43" s="28" t="s">
         <v>45</v>
       </c>
@@ -2020,10 +2020,10 @@
       <c r="A54" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="35">
-        <v>0</v>
-      </c>
-      <c r="C54" s="35"/>
+      <c r="B54" s="48">
+        <v>0</v>
+      </c>
+      <c r="C54" s="48"/>
       <c r="D54" s="28" t="s">
         <v>45</v>
       </c>
@@ -2271,10 +2271,10 @@
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="35">
-        <v>0</v>
-      </c>
-      <c r="C64" s="35"/>
+      <c r="B64" s="48">
+        <v>0</v>
+      </c>
+      <c r="C64" s="48"/>
       <c r="D64" s="28" t="s">
         <v>45</v>
       </c>
